--- a/Data/Pages/dlgAutomobileInsurance_pagVehicleData.xlsx
+++ b/Data/Pages/dlgAutomobileInsurance_pagVehicleData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\PycharmProjects\OnTop\Data\Pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FD9DACE-4A9E-42D2-9E6C-4508FBE52F3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2855AE7-FE85-426C-8FF3-EAD3A09563DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1428" yWindow="744" windowWidth="34500" windowHeight="15768" xr2:uid="{AE079285-A10A-4E50-89E0-1FC0BD4174C7}"/>
+    <workbookView xWindow="4488" yWindow="1572" windowWidth="35280" windowHeight="13512" xr2:uid="{AE079285-A10A-4E50-89E0-1FC0BD4174C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,17 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Check defaults</t>
   </si>
   <si>
-    <t>Schmotz</t>
-  </si>
-  <si>
-    <t>Matthias</t>
-  </si>
-  <si>
     <t xml:space="preserve">Record / Control </t>
   </si>
   <si>
@@ -70,6 +64,15 @@
   </si>
   <si>
     <t>VIA_Pixel9Pro_API35</t>
+  </si>
+  <si>
+    <t>102_VehicleInsuranceAutomobile_001_SmokeTest_FillPage</t>
+  </si>
+  <si>
+    <t>Audi</t>
+  </si>
+  <si>
+    <t>X</t>
   </si>
 </sst>
 </file>
@@ -93,7 +96,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -103,6 +106,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -119,10 +128,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -145,15 +155,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>57564</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>629064</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -176,7 +186,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="899160"/>
+          <a:off x="83820" y="1379220"/>
           <a:ext cx="9392064" cy="5356860"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -486,15 +496,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82737E07-8287-4E6B-9130-6C87B574EFB8}">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+      <selection activeCell="C5" sqref="C5:I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="50" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.77734375" customWidth="1"/>
     <col min="3" max="3" width="19.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.21875" bestFit="1" customWidth="1"/>
@@ -508,55 +518,94 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>13</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
     </row>
     <row r="3" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
-      <c r="G4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H4" t="s">
-        <v>1</v>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Pages/dlgAutomobileInsurance_pagVehicleData.xlsx
+++ b/Data/Pages/dlgAutomobileInsurance_pagVehicleData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\PycharmProjects\OnTop\Data\Pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2855AE7-FE85-426C-8FF3-EAD3A09563DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEAD51BB-893E-4E93-8108-1776E0FDD884}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4488" yWindow="1572" windowWidth="35280" windowHeight="13512" xr2:uid="{AE079285-A10A-4E50-89E0-1FC0BD4174C7}"/>
+    <workbookView xWindow="1116" yWindow="1116" windowWidth="35280" windowHeight="13512" xr2:uid="{AE079285-A10A-4E50-89E0-1FC0BD4174C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Check defaults</t>
   </si>
@@ -33,21 +33,12 @@
     <t xml:space="preserve">Record / Control </t>
   </si>
   <si>
-    <t>comMake</t>
-  </si>
-  <si>
     <t>txtEnginePerformance</t>
   </si>
   <si>
     <t>calDateOfManufactoring</t>
   </si>
   <si>
-    <t>comNumberOfSeats</t>
-  </si>
-  <si>
-    <t>comFuelType</t>
-  </si>
-  <si>
     <t>txtListPrice</t>
   </si>
   <si>
@@ -73,6 +64,60 @@
   </si>
   <si>
     <t>X</t>
+  </si>
+  <si>
+    <t>id=make</t>
+  </si>
+  <si>
+    <t>id=engineperformance</t>
+  </si>
+  <si>
+    <t>id=dateofmanufacture</t>
+  </si>
+  <si>
+    <t>id=numberofseats</t>
+  </si>
+  <si>
+    <t>id=fuel</t>
+  </si>
+  <si>
+    <t>id=listprice</t>
+  </si>
+  <si>
+    <t>id=licenseplatenumber</t>
+  </si>
+  <si>
+    <t>id=annualmileage</t>
+  </si>
+  <si>
+    <t>id=nextenterinsurantdata</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Petrol</t>
+  </si>
+  <si>
+    <t>25000</t>
+  </si>
+  <si>
+    <t>12500</t>
+  </si>
+  <si>
+    <t>12345ABCDE</t>
+  </si>
+  <si>
+    <t>11/29/2011</t>
+  </si>
+  <si>
+    <t>selMake</t>
+  </si>
+  <si>
+    <t>selNumberOfSeats</t>
+  </si>
+  <si>
+    <t>selFuelType</t>
   </si>
 </sst>
 </file>
@@ -128,11 +173,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -160,8 +206,8 @@
       <xdr:rowOff>99060</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>629064</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>446184</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
@@ -499,113 +545,146 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:I5"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="50" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.77734375" customWidth="1"/>
-    <col min="3" max="3" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="50" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
+        <v>8</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
+        <v>9</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
     </row>
     <row r="3" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" t="s">
-        <v>15</v>
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="3">
+        <v>100</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Pages/dlgAutomobileInsurance_pagVehicleData.xlsx
+++ b/Data/Pages/dlgAutomobileInsurance_pagVehicleData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\PycharmProjects\OnTop\Data\Pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEAD51BB-893E-4E93-8108-1776E0FDD884}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02DFC8A7-4376-4C1C-AC2F-5CAFF86BFDD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1116" yWindow="1116" windowWidth="35280" windowHeight="13512" xr2:uid="{AE079285-A10A-4E50-89E0-1FC0BD4174C7}"/>
+    <workbookView xWindow="1812" yWindow="1812" windowWidth="35280" windowHeight="13512" xr2:uid="{AE079285-A10A-4E50-89E0-1FC0BD4174C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
     <t>Check defaults</t>
   </si>
@@ -118,6 +118,9 @@
   </si>
   <si>
     <t>selFuelType</t>
+  </si>
+  <si>
+    <t>Button Next</t>
   </si>
 </sst>
 </file>
@@ -173,11 +176,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -542,10 +544,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82737E07-8287-4E6B-9130-6C87B574EFB8}">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -567,31 +569,31 @@
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="1" t="s">
         <v>21</v>
       </c>
     </row>
@@ -599,15 +601,15 @@
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
     </row>
     <row r="3" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
@@ -642,48 +644,56 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C6" s="1">
         <v>100</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J6" s="1" t="s">
         <v>12</v>
       </c>
     </row>

--- a/Data/Pages/dlgAutomobileInsurance_pagVehicleData.xlsx
+++ b/Data/Pages/dlgAutomobileInsurance_pagVehicleData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\PycharmProjects\OnTop\Data\Pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02DFC8A7-4376-4C1C-AC2F-5CAFF86BFDD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA809384-3902-42E1-8F13-D680870E9E92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1812" yWindow="1812" windowWidth="35280" windowHeight="13512" xr2:uid="{AE079285-A10A-4E50-89E0-1FC0BD4174C7}"/>
+    <workbookView xWindow="11292" yWindow="2868" windowWidth="22560" windowHeight="12480" xr2:uid="{AE079285-A10A-4E50-89E0-1FC0BD4174C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -57,9 +57,6 @@
     <t>VIA_Pixel9Pro_API35</t>
   </si>
   <si>
-    <t>102_VehicleInsuranceAutomobile_001_SmokeTest_FillPage</t>
-  </si>
-  <si>
     <t>Audi</t>
   </si>
   <si>
@@ -121,6 +118,9 @@
   </si>
   <si>
     <t>Button Next</t>
+  </si>
+  <si>
+    <t>102_AutomobileInsurance_001_SmokeTest_FillPage</t>
   </si>
 </sst>
 </file>
@@ -547,7 +547,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -570,31 +570,31 @@
         <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -616,7 +616,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>2</v>
@@ -625,10 +625,10 @@
         <v>3</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>4</v>
@@ -645,10 +645,10 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -667,34 +667,34 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="C6" s="1">
         <v>100</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="J6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Pages/dlgAutomobileInsurance_pagVehicleData.xlsx
+++ b/Data/Pages/dlgAutomobileInsurance_pagVehicleData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\PycharmProjects\OnTop\Data\Pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA809384-3902-42E1-8F13-D680870E9E92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9741DDFE-6B0C-4982-80EB-11B8C80CF3E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11292" yWindow="2868" windowWidth="22560" windowHeight="12480" xr2:uid="{AE079285-A10A-4E50-89E0-1FC0BD4174C7}"/>
+    <workbookView xWindow="3132" yWindow="3096" windowWidth="32112" windowHeight="11364" xr2:uid="{AE079285-A10A-4E50-89E0-1FC0BD4174C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="41">
   <si>
     <t>Check defaults</t>
   </si>
@@ -121,6 +121,33 @@
   </si>
   <si>
     <t>102_AutomobileInsurance_001_SmokeTest_FillPage</t>
+  </si>
+  <si>
+    <t>&lt;MissingMandatoryField&gt;</t>
+  </si>
+  <si>
+    <t>Vehicle Page check for open mandatory fields</t>
+  </si>
+  <si>
+    <t>&lt;NoMandatoryField&gt;</t>
+  </si>
+  <si>
+    <t>labMissingMandatoryCounter</t>
+  </si>
+  <si>
+    <t>xpath=//*[@id="entervehicledata"]/span[@class="counter"]</t>
+  </si>
+  <si>
+    <t>102_AutomobileInsurance_002_VehicleData_001_MandatoryFields_FillMake</t>
+  </si>
+  <si>
+    <t>102_AutomobileInsurance_002_VehicleData_001_MandatoryFields_CheckFilledMake</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>&lt;FilledMandatoryField&gt;</t>
   </si>
 </sst>
 </file>
@@ -203,15 +230,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>83820</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>446184</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1352964</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -234,7 +261,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="83820" y="1379220"/>
+          <a:off x="129540" y="1859280"/>
           <a:ext cx="9392064" cy="5356860"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -544,64 +571,62 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82737E07-8287-4E6B-9130-6C87B574EFB8}">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="50" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="11.5546875" style="1"/>
+    <col min="1" max="1" width="84" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" style="1" customWidth="1"/>
+    <col min="3" max="8" width="22" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -610,52 +635,55 @@
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
     </row>
-    <row r="3" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -664,41 +692,115 @@
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="1">
+      <c r="D6" s="1">
         <v>100</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="1">
+        <v>7</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Data/Pages/dlgAutomobileInsurance_pagVehicleData.xlsx
+++ b/Data/Pages/dlgAutomobileInsurance_pagVehicleData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\PycharmProjects\OnTop\Data\Pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9741DDFE-6B0C-4982-80EB-11B8C80CF3E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{125DB304-50AE-462B-BFCA-D7230EB38162}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3132" yWindow="3096" windowWidth="32112" windowHeight="11364" xr2:uid="{AE079285-A10A-4E50-89E0-1FC0BD4174C7}"/>
+    <workbookView xWindow="3432" yWindow="4152" windowWidth="32112" windowHeight="11364" xr2:uid="{AE079285-A10A-4E50-89E0-1FC0BD4174C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -63,33 +63,6 @@
     <t>X</t>
   </si>
   <si>
-    <t>id=make</t>
-  </si>
-  <si>
-    <t>id=engineperformance</t>
-  </si>
-  <si>
-    <t>id=dateofmanufacture</t>
-  </si>
-  <si>
-    <t>id=numberofseats</t>
-  </si>
-  <si>
-    <t>id=fuel</t>
-  </si>
-  <si>
-    <t>id=listprice</t>
-  </si>
-  <si>
-    <t>id=licenseplatenumber</t>
-  </si>
-  <si>
-    <t>id=annualmileage</t>
-  </si>
-  <si>
-    <t>id=nextenterinsurantdata</t>
-  </si>
-  <si>
     <t>5</t>
   </si>
   <si>
@@ -148,6 +121,33 @@
   </si>
   <si>
     <t>&lt;FilledMandatoryField&gt;</t>
+  </si>
+  <si>
+    <t>//*[@id='make']</t>
+  </si>
+  <si>
+    <t>//*[@id='engineperformance']</t>
+  </si>
+  <si>
+    <t>//*[@id='dateofmanufacture']</t>
+  </si>
+  <si>
+    <t>//*[@id='numberofseats']</t>
+  </si>
+  <si>
+    <t>//*[@id='fuel']</t>
+  </si>
+  <si>
+    <t>//*[@id='listprice']</t>
+  </si>
+  <si>
+    <t>//*[@id='licenseplatenumber']</t>
+  </si>
+  <si>
+    <t>//*[@id='annualmileage']</t>
+  </si>
+  <si>
+    <t>//*[@id='nextenterinsurantdata']</t>
   </si>
 </sst>
 </file>
@@ -235,8 +235,8 @@
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1352964</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>255684</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>83820</xdr:rowOff>
     </xdr:to>
@@ -573,15 +573,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82737E07-8287-4E6B-9130-6C87B574EFB8}">
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="84" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.109375" style="1" customWidth="1"/>
-    <col min="3" max="8" width="22" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="22" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="22" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="21.77734375" style="1" bestFit="1" customWidth="1"/>
@@ -593,34 +595,34 @@
         <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -642,10 +644,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>2</v>
@@ -654,10 +656,10 @@
         <v>3</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>4</v>
@@ -674,7 +676,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>11</v>
@@ -696,7 +698,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>10</v>
@@ -705,22 +707,22 @@
         <v>100</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>11</v>
@@ -728,39 +730,39 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B7" s="1">
         <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>10</v>
@@ -768,34 +770,34 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Pages/dlgAutomobileInsurance_pagVehicleData.xlsx
+++ b/Data/Pages/dlgAutomobileInsurance_pagVehicleData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\PycharmProjects\OnTop\Data\Pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{125DB304-50AE-462B-BFCA-D7230EB38162}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{158D7284-6407-4381-9F46-36F62B549252}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3432" yWindow="4152" windowWidth="32112" windowHeight="11364" xr2:uid="{AE079285-A10A-4E50-89E0-1FC0BD4174C7}"/>
+    <workbookView xWindow="2196" yWindow="2256" windowWidth="32112" windowHeight="11364" xr2:uid="{AE079285-A10A-4E50-89E0-1FC0BD4174C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -573,8 +573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82737E07-8287-4E6B-9130-6C87B574EFB8}">
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Data/Pages/dlgAutomobileInsurance_pagVehicleData.xlsx
+++ b/Data/Pages/dlgAutomobileInsurance_pagVehicleData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\PycharmProjects\OnTop\Data\Pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{158D7284-6407-4381-9F46-36F62B549252}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B48DB96-C65B-4B73-B8DB-DE276EB22D1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2196" yWindow="2256" windowWidth="32112" windowHeight="11364" xr2:uid="{AE079285-A10A-4E50-89E0-1FC0BD4174C7}"/>
+    <workbookView xWindow="912" yWindow="768" windowWidth="37164" windowHeight="15720" xr2:uid="{AE079285-A10A-4E50-89E0-1FC0BD4174C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="47">
   <si>
     <t>Check defaults</t>
   </si>
@@ -148,6 +148,24 @@
   </si>
   <si>
     <t>//*[@id='nextenterinsurantdata']</t>
+  </si>
+  <si>
+    <t>Vehicle Page check for hints regarding mandatory fields</t>
+  </si>
+  <si>
+    <t>&lt;HINT Select an option&gt;</t>
+  </si>
+  <si>
+    <t>&lt;HINT This field is mandatory&gt;</t>
+  </si>
+  <si>
+    <t>&lt;NOHINT&gt;</t>
+  </si>
+  <si>
+    <t>Vehicle Page check error hint list price too low</t>
+  </si>
+  <si>
+    <t>&lt;HINT Must be a number between 500 and 100000&gt;</t>
   </si>
 </sst>
 </file>
@@ -230,15 +248,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>129540</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>255684</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:colOff>209964</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -261,7 +279,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="129540" y="1859280"/>
+          <a:off x="83820" y="2369820"/>
           <a:ext cx="9392064" cy="5356860"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -571,10 +589,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82737E07-8287-4E6B-9130-6C87B574EFB8}">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -582,10 +600,11 @@
     <col min="1" max="1" width="84" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="51.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="22" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="26.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="22" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="43.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="21.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="11.5546875" style="1"/>
   </cols>
@@ -800,6 +819,43 @@
         <v>23</v>
       </c>
     </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Data/Pages/dlgAutomobileInsurance_pagVehicleData.xlsx
+++ b/Data/Pages/dlgAutomobileInsurance_pagVehicleData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\PycharmProjects\OnTop\Data\Pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B48DB96-C65B-4B73-B8DB-DE276EB22D1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECCF0BAB-60B4-4727-A766-CD98545C20D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="912" yWindow="768" windowWidth="37164" windowHeight="15720" xr2:uid="{AE079285-A10A-4E50-89E0-1FC0BD4174C7}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="37164" windowHeight="15720" xr2:uid="{AE079285-A10A-4E50-89E0-1FC0BD4174C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="61">
   <si>
     <t>Check defaults</t>
   </si>
@@ -162,10 +162,52 @@
     <t>&lt;NOHINT&gt;</t>
   </si>
   <si>
-    <t>Vehicle Page check error hint list price too low</t>
-  </si>
-  <si>
     <t>&lt;HINT Must be a number between 500 and 100000&gt;</t>
+  </si>
+  <si>
+    <t>102_AutomobileInsurance_002_VehicleData_002_EnterNumericValuesBelowRange</t>
+  </si>
+  <si>
+    <t>499.9999</t>
+  </si>
+  <si>
+    <t>Vehicle Page check error hint list value ranges</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>&lt;HINT Must be a number between 1 and 2000&gt;</t>
+  </si>
+  <si>
+    <t>&lt;HINT Must be a number between 100 and 100000&gt;</t>
+  </si>
+  <si>
+    <t>-8888</t>
+  </si>
+  <si>
+    <t>102_AutomobileInsurance_002_VehicleData_002_EnterNumericValuesAboveRange</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>999999999999999</t>
+  </si>
+  <si>
+    <t>100000.0001</t>
+  </si>
+  <si>
+    <t>&lt;HINT Must be today or somewhere in the past&gt;</t>
+  </si>
+  <si>
+    <t>102_AutomobileInsurance_002_VehicleData_002_ManufacturingDateInTheFuture</t>
+  </si>
+  <si>
+    <t>Vehicle Page check error hint manufacturing date in the future</t>
+  </si>
+  <si>
+    <t>12/31/2099</t>
   </si>
 </sst>
 </file>
@@ -248,15 +290,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>83820</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>209964</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:colOff>164244</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -279,7 +321,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="83820" y="2369820"/>
+          <a:off x="38100" y="2926080"/>
           <a:ext cx="9392064" cy="5356860"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -589,10 +631,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82737E07-8287-4E6B-9130-6C87B574EFB8}">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -600,11 +642,12 @@
     <col min="1" max="1" width="84" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="51.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="26.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="22" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="43.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="43.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="21.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="11.5546875" style="1"/>
   </cols>
@@ -850,10 +893,60 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="J11" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>46</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Pages/dlgAutomobileInsurance_pagVehicleData.xlsx
+++ b/Data/Pages/dlgAutomobileInsurance_pagVehicleData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\PycharmProjects\OnTop\Data\Pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECCF0BAB-60B4-4727-A766-CD98545C20D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E75EDB2-E8FC-4963-B454-41F1068899A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="37164" windowHeight="15720" xr2:uid="{AE079285-A10A-4E50-89E0-1FC0BD4174C7}"/>
+    <workbookView xWindow="2256" yWindow="2328" windowWidth="39024" windowHeight="14352" xr2:uid="{AE079285-A10A-4E50-89E0-1FC0BD4174C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -291,14 +291,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>164244</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -321,7 +321,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="38100" y="2926080"/>
+          <a:off x="38100" y="3329940"/>
           <a:ext cx="9392064" cy="5356860"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -634,7 +634,7 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Data/Pages/dlgAutomobileInsurance_pagVehicleData.xlsx
+++ b/Data/Pages/dlgAutomobileInsurance_pagVehicleData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\PycharmProjects\OnTop\Data\Pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E75EDB2-E8FC-4963-B454-41F1068899A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8B0C5EE-2F40-4F21-9982-A7D11D74199B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2256" yWindow="2328" windowWidth="39024" windowHeight="14352" xr2:uid="{AE079285-A10A-4E50-89E0-1FC0BD4174C7}"/>
+    <workbookView xWindow="576" yWindow="5856" windowWidth="36948" windowHeight="15672" xr2:uid="{AE079285-A10A-4E50-89E0-1FC0BD4174C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -633,8 +633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82737E07-8287-4E6B-9130-6C87B574EFB8}">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
